--- a/projects/Nerf/ArduStryfe/data_strfye_fuses/Fuse Summary.xlsx
+++ b/projects/Nerf/ArduStryfe/data_strfye_fuses/Fuse Summary.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="19530" windowHeight="8160"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="19530" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
